--- a/excel_data/Traffic projection data/Nigeria data.xlsx
+++ b/excel_data/Traffic projection data/Nigeria data.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\Terminal_optimization\excel_data\Traffic projection data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1DB74EFD-7B48-443D-9FBC-BE46A2C5CE59}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133F9DB8-249F-4646-A0D5-AC1654AFCAD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nigeria data" sheetId="2" r:id="rId1"/>
     <sheet name="South Africa data" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Wijnand IJzermans</author>
   </authors>
   <commentList>
-    <comment ref="J10" authorId="0" shapeId="0">
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K10" authorId="0" shapeId="0">
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="0" shapeId="0">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0" shapeId="0">
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="0" shapeId="0">
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R10" authorId="0" shapeId="0">
+    <comment ref="R10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S10" authorId="0" shapeId="0">
+    <comment ref="S10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -199,12 +207,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Wijnand IJzermans</author>
   </authors>
   <commentList>
-    <comment ref="D10" authorId="0" shapeId="0">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="0" shapeId="0">
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -252,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K10" authorId="0" shapeId="0">
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -276,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="0" shapeId="0">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -300,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0" shapeId="0">
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -324,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="0" shapeId="0">
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -348,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0" shapeId="0">
+    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="0" shapeId="0">
+    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -397,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q10" authorId="0" shapeId="0">
+    <comment ref="Q10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -421,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R10" authorId="0" shapeId="0">
+    <comment ref="R10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -445,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S10" authorId="0" shapeId="0">
+    <comment ref="S10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -635,10 +643,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1169,10 +1177,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1223,7 +1231,7 @@
     <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="43"/>
+    <cellStyle name="Normal 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -1284,7 +1292,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1437,7 +1445,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="324097424"/>
@@ -1499,7 +1507,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="324095128"/>
@@ -1547,7 +1555,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1623,7 +1631,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2081,7 +2089,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="334454504"/>
@@ -2143,7 +2151,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="334455488"/>
@@ -2185,7 +2193,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2222,7 +2230,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2273,7 +2281,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2426,7 +2434,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="324097424"/>
@@ -2488,7 +2496,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="324095128"/>
@@ -2536,7 +2544,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2612,7 +2620,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3082,7 +3090,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="334454504"/>
@@ -3144,7 +3152,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="334455488"/>
@@ -3186,7 +3194,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3223,7 +3231,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5912,7 +5920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView topLeftCell="M7" workbookViewId="0">
@@ -6144,15 +6152,15 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="K11" s="8">
-        <f>C11*J11*($F11*$C$4+$G11*$C$3+$H11*$C$5+$I11*$C$6)/1000</f>
+        <f t="shared" ref="K11:K34" si="0">C11*J11*($F11*$C$4+$G11*$C$3+$H11*$C$5+$I11*$C$6)/1000</f>
         <v>1224589.9460533201</v>
       </c>
       <c r="L11" s="8">
-        <f>C11*D11/1000</f>
+        <f t="shared" ref="L11:L34" si="1">C11*D11/1000</f>
         <v>3130571.8056799998</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" ref="M11:M34" si="0">L11+K11</f>
+        <f t="shared" ref="M11:M34" si="2">L11+K11</f>
         <v>4355161.7517333198</v>
       </c>
       <c r="N11">
@@ -6211,15 +6219,15 @@
         <v>0.4081818181818182</v>
       </c>
       <c r="K12" s="8">
-        <f>C12*J12*($F12*$C$4+$G12*$C$3+$H12*$C$5+$I12*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>1249055.0242009407</v>
       </c>
       <c r="L12" s="8">
-        <f>C12*D12/1000</f>
+        <f t="shared" si="1"/>
         <v>2931789.69</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4180844.7142009409</v>
       </c>
       <c r="N12">
@@ -6232,11 +6240,11 @@
         <v>27392886872.554733</v>
       </c>
       <c r="Q12" s="9">
-        <f>C12/C11 - 1</f>
+        <f t="shared" ref="Q12:Q34" si="3">C12/C11 - 1</f>
         <v>2.5782883482676544E-2</v>
       </c>
       <c r="R12" s="9">
-        <f>N12/N11-1</f>
+        <f t="shared" ref="R12:R34" si="4">N12/N11-1</f>
         <v>5.1635111876076056E-3</v>
       </c>
       <c r="S12" s="9">
@@ -6252,7 +6260,7 @@
         <v>-0.10937934305171848</v>
       </c>
       <c r="V12" s="5">
-        <f>R12/Q12</f>
+        <f t="shared" ref="V12:V34" si="5">R12/Q12</f>
         <v>0.20026895715822304</v>
       </c>
       <c r="W12" s="5">
@@ -6296,15 +6304,15 @@
         <v>0.41136363636363638</v>
       </c>
       <c r="K13" s="8">
-        <f>C13*J13*($F13*$C$4+$G13*$C$3+$H13*$C$5+$I13*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>1285593.2154862699</v>
       </c>
       <c r="L13" s="8">
-        <f>C13*D13/1000</f>
+        <f t="shared" si="1"/>
         <v>3006646.89</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4292240.10548627</v>
       </c>
       <c r="N13">
@@ -6317,35 +6325,35 @@
         <v>29300903643.058353</v>
       </c>
       <c r="Q13" s="9">
-        <f>C13/C12 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.5532936504732762E-2</v>
       </c>
       <c r="R13" s="9">
-        <f>N13/N12-1</f>
+        <f t="shared" si="4"/>
         <v>-9.2465753424657571E-3</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" ref="S13:S34" si="1">M13/M12-1</f>
+        <f t="shared" ref="S13:S34" si="6">M13/M12-1</f>
         <v>2.6644230747665976E-2</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" ref="T13:T34" si="2">K13/K12-1</f>
+        <f t="shared" ref="T13:T34" si="7">K13/K12-1</f>
         <v>2.9252667478523398E-2</v>
       </c>
       <c r="U13" s="9">
-        <f t="shared" ref="U13:U34" si="3">P13/P12-1</f>
+        <f t="shared" ref="U13:U34" si="8">P13/P12-1</f>
         <v>6.9653730889360332E-2</v>
       </c>
       <c r="V13" s="5">
-        <f>R13/Q13</f>
+        <f t="shared" si="5"/>
         <v>-0.36214304378001411</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" ref="W13:W34" si="4">T13/U13</f>
+        <f t="shared" ref="W13:W34" si="9">T13/U13</f>
         <v>0.41997272945779518</v>
       </c>
       <c r="X13" s="5">
-        <f t="shared" ref="X13:X34" si="5">R13/U13</f>
+        <f t="shared" ref="X13:X34" si="10">R13/U13</f>
         <v>-0.13275061112165321</v>
       </c>
     </row>
@@ -6381,15 +6389,15 @@
         <v>0.41454545454545455</v>
       </c>
       <c r="K14" s="8">
-        <f>C14*J14*($F14*$C$4+$G14*$C$3+$H14*$C$5+$I14*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>1440060.3081712166</v>
       </c>
       <c r="L14" s="8">
-        <f>C14*D14/1000</f>
+        <f t="shared" si="1"/>
         <v>3082852.11</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4522912.4181712167</v>
       </c>
       <c r="N14">
@@ -6402,35 +6410,35 @@
         <v>15789003752.759382</v>
       </c>
       <c r="Q14" s="9">
-        <f>C14/C13 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.5345583564686525E-2</v>
       </c>
       <c r="R14" s="9">
-        <f>N14/N13-1</f>
+        <f t="shared" si="4"/>
         <v>8.7279640511579659E-2</v>
       </c>
       <c r="S14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5.3741707596950405E-2</v>
       </c>
       <c r="T14" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.12015238632581005</v>
       </c>
       <c r="U14" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-0.46114277071110266</v>
       </c>
       <c r="V14" s="5">
-        <f>R14/Q14</f>
+        <f t="shared" si="5"/>
         <v>3.4435837821143944</v>
       </c>
       <c r="W14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-0.26055355078109482</v>
       </c>
       <c r="X14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.18926815306459335</v>
       </c>
     </row>
@@ -6466,15 +6474,15 @@
         <v>0.41772727272727272</v>
       </c>
       <c r="K15" s="8">
-        <f>C15*J15*($F15*$C$4+$G15*$C$3+$H15*$C$5+$I15*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>1584861.1341673536</v>
       </c>
       <c r="L15" s="8">
-        <f>C15*D15/1000</f>
+        <f t="shared" si="1"/>
         <v>3160673.49</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4745534.6241673538</v>
       </c>
       <c r="N15">
@@ -6487,35 +6495,35 @@
         <v>18086400535.57766</v>
       </c>
       <c r="Q15" s="9">
-        <f>C15/C14 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.5243306270698707E-2</v>
       </c>
       <c r="R15" s="9">
-        <f>N15/N14-1</f>
+        <f t="shared" si="4"/>
         <v>2.002861230329045E-2</v>
       </c>
       <c r="S15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4.9220985376973392E-2</v>
       </c>
       <c r="T15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.10055191798184104</v>
       </c>
       <c r="U15" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.14550612684582909</v>
       </c>
       <c r="V15" s="5">
-        <f>R15/Q15</f>
+        <f t="shared" si="5"/>
         <v>0.793422703369834</v>
       </c>
       <c r="W15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.6910493747688079</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.13764789660377499</v>
       </c>
     </row>
@@ -6551,15 +6559,15 @@
         <v>0.4209090909090909</v>
       </c>
       <c r="K16" s="8">
-        <f>C16*J16*($F16*$C$4+$G16*$C$3+$H16*$C$5+$I16*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>1653648.7047892564</v>
       </c>
       <c r="L16" s="8">
-        <f>C16*D16/1000</f>
+        <f t="shared" si="1"/>
         <v>3240343.95</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4893992.6547892569</v>
       </c>
       <c r="N16">
@@ -6572,35 +6580,35 @@
         <v>28546958641.273453</v>
       </c>
       <c r="Q16" s="9">
-        <f>C16/C15 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.520679856747865E-2</v>
       </c>
       <c r="R16" s="9">
-        <f>N16/N15-1</f>
+        <f t="shared" si="4"/>
         <v>1.2934393018544599E-2</v>
       </c>
       <c r="S16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.1283731418976002E-2</v>
       </c>
       <c r="T16" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.3402900821365664E-2</v>
       </c>
       <c r="U16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.57836594324663371</v>
       </c>
       <c r="V16" s="5">
-        <f>R16/Q16</f>
+        <f t="shared" si="5"/>
         <v>0.51313112944189254</v>
       </c>
       <c r="W16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7.5044012062199308E-2</v>
       </c>
       <c r="X16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.2363683701598868E-2</v>
       </c>
     </row>
@@ -6636,15 +6644,15 @@
         <v>0.42409090909090907</v>
       </c>
       <c r="K17" s="8">
-        <f>C17*J17*($F17*$C$4+$G17*$C$3+$H17*$C$5+$I17*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>1758992.5726384779</v>
       </c>
       <c r="L17" s="8">
-        <f>C17*D17/1000</f>
+        <f t="shared" si="1"/>
         <v>3321987.12</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5080979.6926384782</v>
       </c>
       <c r="N17">
@@ -6657,35 +6665,35 @@
         <v>34987951375</v>
       </c>
       <c r="Q17" s="9">
-        <f>C17/C16 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.5195834534787576E-2</v>
       </c>
       <c r="R17" s="9">
-        <f>N17/N16-1</f>
+        <f t="shared" si="4"/>
         <v>-0.21292307692307688</v>
       </c>
       <c r="S17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.820746189029034E-2</v>
       </c>
       <c r="T17" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.3703897656211428E-2</v>
       </c>
       <c r="U17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.22562798421594721</v>
       </c>
       <c r="V17" s="5">
-        <f>R17/Q17</f>
+        <f t="shared" si="5"/>
         <v>-8.4507253224375898</v>
       </c>
       <c r="W17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.2823404103776454</v>
       </c>
       <c r="X17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.9436909063518002</v>
       </c>
     </row>
@@ -6721,15 +6729,15 @@
         <v>0.42727272727272725</v>
       </c>
       <c r="K18" s="8">
-        <f>C18*J18*($F18*$C$4+$G18*$C$3+$H18*$C$5+$I18*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>1898234.7196189498</v>
       </c>
       <c r="L18" s="8">
-        <f>C18*D18/1000</f>
+        <f t="shared" si="1"/>
         <v>3405681.15</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5303915.8696189495</v>
       </c>
       <c r="N18">
@@ -6742,35 +6750,35 @@
         <v>35822342617.697807</v>
       </c>
       <c r="Q18" s="9">
-        <f>C18/C17 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.5193965833317344E-2</v>
       </c>
       <c r="R18" s="9">
-        <f>N18/N17-1</f>
+        <f t="shared" si="4"/>
         <v>-4.1438623924941353E-2</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4.3876612477603549E-2</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>7.916016767007128E-2</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.3847959366206428E-2</v>
       </c>
       <c r="V18" s="5">
-        <f>R18/Q18</f>
+        <f t="shared" si="5"/>
         <v>-1.6447836834858898</v>
       </c>
       <c r="W18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3.3193686073721094</v>
       </c>
       <c r="X18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-1.7376171809342162</v>
       </c>
     </row>
@@ -6806,15 +6814,15 @@
         <v>0.43045454545454542</v>
       </c>
       <c r="K19" s="8">
-        <f>C19*J19*($F19*$C$4+$G19*$C$3+$H19*$C$5+$I19*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>1973410.7912361813</v>
       </c>
       <c r="L19" s="8">
-        <f>C19*D19/1000</f>
+        <f t="shared" si="1"/>
         <v>3491572.5</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5464983.2912361808</v>
       </c>
       <c r="N19">
@@ -6827,35 +6835,35 @@
         <v>32004613750</v>
       </c>
       <c r="Q19" s="9">
-        <f>C19/C18 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.5220020964088263E-2</v>
       </c>
       <c r="R19" s="9">
-        <f>N19/N18-1</f>
+        <f t="shared" si="4"/>
         <v>9.3800978792821788E-3</v>
       </c>
       <c r="S19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.0367642620395374E-2</v>
       </c>
       <c r="T19" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.9603148567592505E-2</v>
       </c>
       <c r="U19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-0.10657395884019272</v>
       </c>
       <c r="V19" s="5">
-        <f>R19/Q19</f>
+        <f t="shared" si="5"/>
         <v>0.37193061388167969</v>
       </c>
       <c r="W19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-0.37160249087656855</v>
       </c>
       <c r="X19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-8.801491453787133E-2</v>
       </c>
     </row>
@@ -6891,15 +6899,15 @@
         <v>0.4336363636363636</v>
       </c>
       <c r="K20" s="8">
-        <f>C20*J20*($F20*$C$4+$G20*$C$3+$H20*$C$5+$I20*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2048210.0145254773</v>
       </c>
       <c r="L20" s="8">
-        <f>C20*D20/1000</f>
+        <f t="shared" si="1"/>
         <v>3579812.19</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5628022.2045254773</v>
       </c>
       <c r="N20">
@@ -6912,35 +6920,35 @@
         <v>35870792987.943222</v>
       </c>
       <c r="Q20" s="9">
-        <f>C20/C19 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.527219182760776E-2</v>
       </c>
       <c r="R20" s="9">
-        <f>N20/N19-1</f>
+        <f t="shared" si="4"/>
         <v>3.0303030303030276E-2</v>
       </c>
       <c r="S20" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.9833378182647197E-2</v>
       </c>
       <c r="T20" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.7903524000920452E-2</v>
       </c>
       <c r="U20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.12080068418083068</v>
       </c>
       <c r="V20" s="5">
-        <f>R20/Q20</f>
+        <f t="shared" si="5"/>
         <v>1.1990661716142383</v>
       </c>
       <c r="W20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.3137691169379585</v>
       </c>
       <c r="X20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.25085147909980904</v>
       </c>
     </row>
@@ -6976,15 +6984,15 @@
         <v>0.43681818181818177</v>
       </c>
       <c r="K21" s="8">
-        <f>C21*J21*($F21*$C$4+$G21*$C$3+$H21*$C$5+$I21*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2039894.9444212895</v>
       </c>
       <c r="L21" s="8">
-        <f>C21*D21/1000</f>
+        <f t="shared" si="1"/>
         <v>3670560.27</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5710455.214421289</v>
       </c>
       <c r="N21">
@@ -6997,35 +7005,35 @@
         <v>46386011231.369957</v>
       </c>
       <c r="Q21" s="9">
-        <f>C21/C20 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.5349955579652805E-2</v>
       </c>
       <c r="R21" s="9">
-        <f>N21/N20-1</f>
+        <f t="shared" si="4"/>
         <v>-0.21568627450980393</v>
       </c>
       <c r="S21" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.4646887823137611E-2</v>
       </c>
       <c r="T21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-4.0596765200927587E-3</v>
       </c>
       <c r="U21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.2931415050389623</v>
       </c>
       <c r="V21" s="5">
-        <f>R21/Q21</f>
+        <f t="shared" si="5"/>
         <v>-8.5083492092161688</v>
       </c>
       <c r="W21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-1.3848862922202623E-2</v>
       </c>
       <c r="X21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.73577528532213965</v>
       </c>
     </row>
@@ -7061,15 +7069,15 @@
         <v>0.43999999999999995</v>
       </c>
       <c r="K22" s="8">
-        <f>C22*J22*($F22*$C$4+$G22*$C$3+$H22*$C$5+$I22*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2292728.8299907199</v>
       </c>
       <c r="L22" s="8">
-        <f>C22*D22/1000</f>
+        <f t="shared" si="1"/>
         <v>3763903.02</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6056631.8499907199</v>
       </c>
       <c r="N22">
@@ -7082,35 +7090,35 @@
         <v>44137994251.618034</v>
       </c>
       <c r="Q22" s="9">
-        <f>C22/C21 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.5430109611032314E-2</v>
       </c>
       <c r="R22" s="9">
-        <f>N22/N21-1</f>
+        <f t="shared" si="4"/>
         <v>0.25750000000000006</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6.0621548120225244E-2</v>
       </c>
       <c r="T22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.1239445620770232</v>
       </c>
       <c r="U22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-4.8463252607321206E-2</v>
       </c>
       <c r="V22" s="5">
-        <f>R22/Q22</f>
+        <f t="shared" si="5"/>
         <v>10.125791981969639</v>
       </c>
       <c r="W22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-2.5574957397370239</v>
       </c>
       <c r="X22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-5.3133041252187905</v>
       </c>
     </row>
@@ -7146,15 +7154,15 @@
         <v>0.44318181818181812</v>
       </c>
       <c r="K23" s="8">
-        <f>C23*J23*($F23*$C$4+$G23*$C$3+$H23*$C$5+$I23*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2513853.4807252157</v>
       </c>
       <c r="L23" s="8">
-        <f>C23*D23/1000</f>
+        <f t="shared" si="1"/>
         <v>3860001.3</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6373854.7807252156</v>
       </c>
       <c r="N23">
@@ -7167,35 +7175,35 @@
         <v>59116847821.579681</v>
       </c>
       <c r="Q23" s="9">
-        <f>C23/C22 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.5531550491436406E-2</v>
       </c>
       <c r="R23" s="9">
-        <f>N23/N22-1</f>
+        <f t="shared" si="4"/>
         <v>3.3797216699801291E-2</v>
       </c>
       <c r="S23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5.2376128942851485E-2</v>
       </c>
       <c r="T23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>9.6446054955130034E-2</v>
       </c>
       <c r="U23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.33936416513563139</v>
       </c>
       <c r="V23" s="5">
-        <f>R23/Q23</f>
+        <f t="shared" si="5"/>
         <v>1.3237432137596692</v>
       </c>
       <c r="W23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.28419634382016762</v>
       </c>
       <c r="X23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.9589821707585971E-2</v>
       </c>
     </row>
@@ -7231,15 +7239,15 @@
         <v>0.4463636363636363</v>
       </c>
       <c r="K24" s="8">
-        <f>C24*J24*($F24*$C$4+$G24*$C$3+$H24*$C$5+$I24*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2340746.164363333</v>
       </c>
       <c r="L24" s="8">
-        <f>C24*D24/1000</f>
+        <f t="shared" si="1"/>
         <v>3959175.99</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6299922.1543633332</v>
       </c>
       <c r="N24">
@@ -7252,35 +7260,35 @@
         <v>67655813930.092621</v>
       </c>
       <c r="Q24" s="9">
-        <f>C24/C23 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.5692916217411543E-2</v>
       </c>
       <c r="R24" s="9">
-        <f>N24/N23-1</f>
+        <f t="shared" si="4"/>
         <v>5.7692307692307709E-2</v>
       </c>
       <c r="S24" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-1.159935845815907E-2</v>
       </c>
       <c r="T24" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-6.8861338852550524E-2</v>
       </c>
       <c r="U24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.14444217550780714</v>
       </c>
       <c r="V24" s="5">
-        <f>R24/Q24</f>
+        <f t="shared" si="5"/>
         <v>2.2454557981709704</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-0.47673983454249863</v>
       </c>
       <c r="X24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.39941455803668247</v>
       </c>
     </row>
@@ -7316,15 +7324,15 @@
         <v>0.44954545454545447</v>
       </c>
       <c r="K25" s="8">
-        <f>C25*J25*($F25*$C$4+$G25*$C$3+$H25*$C$5+$I25*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2443558.4537171288</v>
       </c>
       <c r="L25" s="8">
-        <f>C25*D25/1000</f>
+        <f t="shared" si="1"/>
         <v>4061808.48</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6505366.9337171288</v>
       </c>
       <c r="N25">
@@ -7337,35 +7345,35 @@
         <v>87845420504.48497</v>
       </c>
       <c r="Q25" s="9">
-        <f>C25/C24 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.5922689534192633E-2</v>
       </c>
       <c r="R25" s="9">
-        <f>N25/N24-1</f>
+        <f t="shared" si="4"/>
         <v>0.1454545454545455</v>
       </c>
       <c r="S25" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.2610685389422578E-2</v>
       </c>
       <c r="T25" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.3922869945943077E-2</v>
       </c>
       <c r="U25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.29841643166474729</v>
       </c>
       <c r="V25" s="5">
-        <f>R25/Q25</f>
+        <f t="shared" si="5"/>
         <v>5.6110900554006005</v>
       </c>
       <c r="W25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.14718649941933409</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.48742136833120114</v>
       </c>
     </row>
@@ -7401,15 +7409,15 @@
         <v>0.45272727272727264</v>
       </c>
       <c r="K26" s="8">
-        <f>C26*J26*($F26*$C$4+$G26*$C$3+$H26*$C$5+$I26*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2417959.8705903385</v>
       </c>
       <c r="L26" s="8">
-        <f>C26*D26/1000</f>
+        <f t="shared" si="1"/>
         <v>4168184.34</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6586144.2105903383</v>
       </c>
       <c r="N26">
@@ -7422,35 +7430,35 @@
         <v>112248353104.91086</v>
       </c>
       <c r="Q26" s="9">
-        <f>C26/C25 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.6189285025078224E-2</v>
       </c>
       <c r="R26" s="9">
-        <f>N26/N25-1</f>
+        <f t="shared" si="4"/>
         <v>-7.1428571428571397E-2</v>
       </c>
       <c r="S26" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.2417020853127125E-2</v>
       </c>
       <c r="T26" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-1.0475944656797465E-2</v>
       </c>
       <c r="U26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.27779402113716323</v>
       </c>
       <c r="V26" s="5">
-        <f>R26/Q26</f>
+        <f t="shared" si="5"/>
         <v>-2.7273967716252328</v>
       </c>
       <c r="W26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-3.7711195561062401E-2</v>
       </c>
       <c r="X26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.25712782131226258</v>
       </c>
     </row>
@@ -7486,15 +7494,15 @@
         <v>0.45590909090909082</v>
       </c>
       <c r="K27" s="8">
-        <f>C27*J27*($F27*$C$4+$G27*$C$3+$H27*$C$5+$I27*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2286434.3247810444</v>
       </c>
       <c r="L27" s="8">
-        <f>C27*D27/1000</f>
+        <f t="shared" si="1"/>
         <v>4278422.82</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6564857.1447810447</v>
       </c>
       <c r="N27">
@@ -7507,35 +7515,35 @@
         <v>145429764861.24939</v>
       </c>
       <c r="Q27" s="9">
-        <f>C27/C26 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.6447601883173855E-2</v>
       </c>
       <c r="R27" s="9">
-        <f>N27/N26-1</f>
+        <f t="shared" si="4"/>
         <v>0.170940170940171</v>
       </c>
       <c r="S27" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-3.2320983459586117E-3</v>
       </c>
       <c r="T27" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-5.4395255855583136E-2</v>
       </c>
       <c r="U27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.29560711438969745</v>
       </c>
       <c r="V27" s="5">
-        <f>R27/Q27</f>
+        <f t="shared" si="5"/>
         <v>6.463352393735339</v>
       </c>
       <c r="W27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-0.18401199838470103</v>
       </c>
       <c r="X27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.57826812217659074</v>
       </c>
     </row>
@@ -7571,15 +7579,15 @@
         <v>0.45909090909090899</v>
       </c>
       <c r="K28" s="8">
-        <f>C28*J28*($F28*$C$4+$G28*$C$3+$H28*$C$5+$I28*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2611514.6715537445</v>
       </c>
       <c r="L28" s="8">
-        <f>C28*D28/1000</f>
+        <f t="shared" si="1"/>
         <v>4392510.72</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7004025.3915537447</v>
       </c>
       <c r="N28">
@@ -7592,35 +7600,35 @@
         <v>166451213395.63986</v>
       </c>
       <c r="Q28" s="9">
-        <f>C28/C27 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.666587777783036E-2</v>
       </c>
       <c r="R28" s="9">
-        <f>N28/N27-1</f>
+        <f t="shared" si="4"/>
         <v>-2.9197080291970767E-2</v>
       </c>
       <c r="S28" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6.689684742368418E-2</v>
       </c>
       <c r="T28" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.14217786325606818</v>
       </c>
       <c r="U28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.14454708466624067</v>
       </c>
       <c r="V28" s="5">
-        <f>R28/Q28</f>
+        <f t="shared" si="5"/>
         <v>-1.0949229024159413</v>
       </c>
       <c r="W28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.98360934490209184</v>
       </c>
       <c r="X28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.2019901014218782</v>
       </c>
     </row>
@@ -7656,15 +7664,15 @@
         <v>0.46227272727272717</v>
       </c>
       <c r="K29" s="8">
-        <f>C29*J29*($F29*$C$4+$G29*$C$3+$H29*$C$5+$I29*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2662345.2333597583</v>
       </c>
       <c r="L29" s="8">
-        <f>C29*D29/1000</f>
+        <f t="shared" si="1"/>
         <v>4510421.7</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7172766.9333597589</v>
       </c>
       <c r="N29">
@@ -7677,35 +7685,35 @@
         <v>208064753766.47043</v>
       </c>
       <c r="Q29" s="9">
-        <f>C29/C28 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.684364080504742E-2</v>
       </c>
       <c r="R29" s="9">
-        <f>N29/N28-1</f>
+        <f t="shared" si="4"/>
         <v>0.1278195488721805</v>
       </c>
       <c r="S29" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.4092080249952019E-2</v>
       </c>
       <c r="T29" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.9464015408257929E-2</v>
       </c>
       <c r="U29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.25000442785549937</v>
       </c>
       <c r="V29" s="5">
-        <f>R29/Q29</f>
+        <f t="shared" si="5"/>
         <v>4.7616323657611508</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7.785468271589166E-2</v>
       </c>
       <c r="X29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.51126914018522585</v>
       </c>
     </row>
@@ -7741,15 +7749,15 @@
         <v>0.46545454545454534</v>
       </c>
       <c r="K30" s="8">
-        <f>C30*J30*($F30*$C$4+$G30*$C$3+$H30*$C$5+$I30*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2741812.6184955803</v>
       </c>
       <c r="L30" s="8">
-        <f>C30*D30/1000</f>
+        <f t="shared" si="1"/>
         <v>4632065.43</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7373878.0484955795</v>
       </c>
       <c r="N30">
@@ -7762,35 +7770,35 @@
         <v>169481317540.36392</v>
       </c>
       <c r="Q30" s="9">
-        <f>C30/C29 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.6969480481170871E-2</v>
       </c>
       <c r="R30" s="9">
-        <f>N30/N29-1</f>
+        <f t="shared" si="4"/>
         <v>-1.3333333333333308E-2</v>
       </c>
       <c r="S30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.8038149992086758E-2</v>
       </c>
       <c r="T30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.984864026651346E-2</v>
       </c>
       <c r="U30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-0.18543955921247535</v>
       </c>
       <c r="V30" s="5">
-        <f>R30/Q30</f>
+        <f t="shared" si="5"/>
         <v>-0.49438599095900887</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-0.16096155746527147</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.1901235043683787E-2</v>
       </c>
     </row>
@@ -7826,15 +7834,15 @@
         <v>0.46863636363636352</v>
       </c>
       <c r="K31" s="8">
-        <f>C31*J31*($F31*$C$4+$G31*$C$3+$H31*$C$5+$I31*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2815592.8483257797</v>
       </c>
       <c r="L31" s="8">
-        <f>C31*D31/1000</f>
+        <f t="shared" si="1"/>
         <v>4276855.6991699999</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7092448.5474957796</v>
       </c>
       <c r="N31">
@@ -7847,35 +7855,35 @@
         <v>369062464570.38684</v>
       </c>
       <c r="Q31" s="9">
-        <f>C31/C30 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.7046768205949201E-2</v>
       </c>
       <c r="R31" s="9">
-        <f>N31/N30-1</f>
+        <f t="shared" si="4"/>
         <v>2.7027027027026973E-2</v>
       </c>
       <c r="S31" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-3.8165738455251175E-2</v>
       </c>
       <c r="T31" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.6909289618297194E-2</v>
       </c>
       <c r="U31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.1775996901988348</v>
       </c>
       <c r="V31" s="5">
-        <f>R31/Q31</f>
+        <f t="shared" si="5"/>
         <v>0.9992701095091322</v>
       </c>
       <c r="W31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.2850965266264317E-2</v>
       </c>
       <c r="X31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.295094610840423E-2</v>
       </c>
     </row>
@@ -7911,15 +7919,15 @@
         <v>0.47181818181818169</v>
       </c>
       <c r="K32" s="8">
-        <f>C32*J32*($F32*$C$4+$G32*$C$3+$H32*$C$5+$I32*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>3079890.3826812813</v>
       </c>
       <c r="L32" s="8">
-        <f>C32*D32/1000</f>
+        <f t="shared" si="1"/>
         <v>4861066.3332200004</v>
       </c>
       <c r="M32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7940956.7159012817</v>
       </c>
       <c r="N32">
@@ -7932,35 +7940,35 @@
         <v>411743801711.64197</v>
       </c>
       <c r="Q32" s="9">
-        <f>C32/C31 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.7108476110732527E-2</v>
       </c>
       <c r="R32" s="9">
-        <f>N32/N31-1</f>
+        <f t="shared" si="4"/>
         <v>0.17105263157894735</v>
       </c>
       <c r="S32" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.11963543517070629</v>
       </c>
       <c r="T32" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>9.386923060010588E-2</v>
       </c>
       <c r="U32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.11564800335612291</v>
       </c>
       <c r="V32" s="5">
-        <f>R32/Q32</f>
+        <f t="shared" si="5"/>
         <v>6.3099316568084705</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.81168051220951787</v>
       </c>
       <c r="X32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.4790798510564263</v>
       </c>
     </row>
@@ -7996,15 +8004,15 @@
         <v>0.47499999999999987</v>
       </c>
       <c r="K33" s="8">
-        <f>C33*J33*($F33*$C$4+$G33*$C$3+$H33*$C$5+$I33*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>3147132.0971536585</v>
       </c>
       <c r="L33" s="8">
-        <f>C33*D33/1000</f>
+        <f t="shared" si="1"/>
         <v>4992987.4409799995</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8140119.5381336585</v>
       </c>
       <c r="N33">
@@ -8017,35 +8025,35 @@
         <v>460953836444.36426</v>
       </c>
       <c r="Q33" s="9">
-        <f>C33/C32 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.7138306436689685E-2</v>
       </c>
       <c r="R33" s="9">
-        <f>N33/N32-1</f>
+        <f t="shared" si="4"/>
         <v>-1.1235955056179803E-2</v>
       </c>
       <c r="S33" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.5080456846410693E-2</v>
       </c>
       <c r="T33" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.1832502497650008E-2</v>
       </c>
       <c r="U33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.1195161518598542</v>
       </c>
       <c r="V33" s="5">
-        <f>R33/Q33</f>
+        <f t="shared" si="5"/>
         <v>-0.41402565345748077</v>
       </c>
       <c r="W33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.18267407507607014</v>
       </c>
       <c r="X33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-9.40120216500544E-2</v>
       </c>
     </row>
@@ -8081,15 +8089,15 @@
         <v>0.47818181818181804</v>
       </c>
       <c r="K34" s="8">
-        <f>C34*J34*($F34*$C$4+$G34*$C$3+$H34*$C$5+$I34*$C$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>3234171.3909995309</v>
       </c>
       <c r="L34" s="8">
-        <f>C34*D34/1000</f>
+        <f t="shared" si="1"/>
         <v>5622254.79416</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8856426.1851595305</v>
       </c>
       <c r="N34">
@@ -8102,35 +8110,35 @@
         <v>514966287206.50519</v>
       </c>
       <c r="Q34" s="9">
-        <f>C34/C33 - 1</f>
+        <f t="shared" si="3"/>
         <v>2.7089614915684956E-2</v>
       </c>
       <c r="R34" s="9">
-        <f>N34/N33-1</f>
+        <f t="shared" si="4"/>
         <v>-3.4090909090909061E-2</v>
       </c>
       <c r="S34" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7997067324407485E-2</v>
       </c>
       <c r="T34" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.7656701771302528E-2</v>
       </c>
       <c r="U34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.11717540129131798</v>
       </c>
       <c r="V34" s="5">
-        <f>R34/Q34</f>
+        <f t="shared" si="5"/>
         <v>-1.25844937984594</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.23602822321506936</v>
       </c>
       <c r="X34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.29093912813793793</v>
       </c>
     </row>
@@ -8139,35 +8147,35 @@
         <v>41</v>
       </c>
       <c r="Q36" s="10">
-        <f>AVERAGE(Q12:Q34)</f>
+        <f t="shared" ref="Q36:X36" si="11">AVERAGE(Q12:Q34)</f>
         <v>2.5974773679354649E-2</v>
       </c>
       <c r="R36" s="10">
-        <f>AVERAGE(R12:R34)</f>
+        <f t="shared" si="11"/>
         <v>2.2512710155089689E-2</v>
       </c>
       <c r="S36" s="10">
-        <f>AVERAGE(S12:S34)</f>
+        <f t="shared" si="11"/>
         <v>3.193762936981806E-2</v>
       </c>
       <c r="T36" s="10">
-        <f>AVERAGE(T12:T34)</f>
+        <f t="shared" si="11"/>
         <v>4.4434274123186061E-2</v>
       </c>
       <c r="U36" s="10">
-        <f>AVERAGE(U12:U34)</f>
+        <f t="shared" si="11"/>
         <v>0.16635042245321199</v>
       </c>
       <c r="V36" s="5">
-        <f>AVERAGE(V12:V34)</f>
+        <f t="shared" si="11"/>
         <v>0.84376039023791172</v>
       </c>
       <c r="W36" s="5">
-        <f>AVERAGE(W12:W34)</f>
+        <f t="shared" si="11"/>
         <v>0.15661083808385329</v>
       </c>
       <c r="X36" s="5">
-        <f>AVERAGE(X12:X34)</f>
+        <f t="shared" si="11"/>
         <v>-0.25960606598523639</v>
       </c>
     </row>
@@ -8176,35 +8184,35 @@
         <v>51</v>
       </c>
       <c r="Q37" s="2">
-        <f>_xlfn.STDEV.S(Q12:Q34)</f>
+        <f t="shared" ref="Q37:X37" si="12">_xlfn.STDEV.S(Q12:Q34)</f>
         <v>7.5440534687203032E-4</v>
       </c>
       <c r="R37" s="2">
-        <f>_xlfn.STDEV.S(R12:R34)</f>
+        <f t="shared" si="12"/>
         <v>0.10998432798351591</v>
       </c>
       <c r="S37" s="13">
-        <f>_xlfn.STDEV.S(S12:S34)</f>
+        <f t="shared" si="12"/>
         <v>3.5876890634792602E-2</v>
       </c>
       <c r="T37" s="2">
-        <f>_xlfn.STDEV.S(T12:T34)</f>
+        <f t="shared" si="12"/>
         <v>5.3208823304435632E-2</v>
       </c>
       <c r="U37" s="2">
-        <f>_xlfn.STDEV.S(U12:U34)</f>
+        <f t="shared" si="12"/>
         <v>0.30525246256559158</v>
       </c>
       <c r="V37" s="5">
-        <f>_xlfn.STDEV.S(V12:V34)</f>
+        <f t="shared" si="12"/>
         <v>4.2711791960114072</v>
       </c>
       <c r="W37" s="5">
-        <f>_xlfn.STDEV.S(W12:W34)</f>
+        <f t="shared" si="12"/>
         <v>0.95786234070116372</v>
       </c>
       <c r="X37" s="5">
-        <f>_xlfn.STDEV.S(X12:X34)</f>
+        <f t="shared" si="12"/>
         <v>1.2554377341558927</v>
       </c>
     </row>
@@ -8213,35 +8221,35 @@
         <v>49</v>
       </c>
       <c r="Q39" s="10">
-        <f>AVERAGE(Q30:Q34)</f>
+        <f t="shared" ref="Q39:X39" si="13">AVERAGE(Q30:Q34)</f>
         <v>2.7070529230045447E-2</v>
       </c>
       <c r="R39" s="10">
-        <f>AVERAGE(R30:R34)</f>
+        <f t="shared" si="13"/>
         <v>2.7883892225110431E-2</v>
       </c>
       <c r="S39" s="10">
-        <f>AVERAGE(S30:S34)</f>
+        <f t="shared" si="13"/>
         <v>4.4517074175672008E-2</v>
       </c>
       <c r="T39" s="10">
-        <f>AVERAGE(T30:T34)</f>
+        <f t="shared" si="13"/>
         <v>4.0023272950773812E-2</v>
       </c>
       <c r="U39" s="10">
-        <f>AVERAGE(U30:U34)</f>
+        <f t="shared" si="13"/>
         <v>0.26889993749873092</v>
       </c>
       <c r="V39" s="5">
-        <f>AVERAGE(V30:V34)</f>
+        <f t="shared" si="13"/>
         <v>1.0284681484110345</v>
       </c>
       <c r="W39" s="5">
-        <f>AVERAGE(W30:W34)</f>
+        <f t="shared" si="13"/>
         <v>0.21845444366033004</v>
       </c>
       <c r="X39" s="5">
-        <f>AVERAGE(X30:X34)</f>
+        <f t="shared" si="13"/>
         <v>0.23779617648410439</v>
       </c>
     </row>
@@ -8250,35 +8258,35 @@
         <v>50</v>
       </c>
       <c r="Q40" s="9">
-        <f>_xlfn.STDEV.S(Q30:Q34)</f>
+        <f t="shared" ref="Q40:X40" si="14">_xlfn.STDEV.S(Q30:Q34)</f>
         <v>6.5523688094316175E-5</v>
       </c>
       <c r="R40" s="9">
-        <f>_xlfn.STDEV.S(R30:R34)</f>
+        <f t="shared" si="14"/>
         <v>8.3018251424523765E-2</v>
       </c>
       <c r="S40" s="9">
-        <f>_xlfn.STDEV.S(S30:S34)</f>
+        <f t="shared" si="14"/>
         <v>6.127614238593846E-2</v>
       </c>
       <c r="T40" s="9">
-        <f>_xlfn.STDEV.S(T30:T34)</f>
+        <f t="shared" si="14"/>
         <v>3.0243689741386248E-2</v>
       </c>
       <c r="U40" s="9">
-        <f>_xlfn.STDEV.S(U30:U34)</f>
+        <f t="shared" si="14"/>
         <v>0.52463835745364362</v>
       </c>
       <c r="V40" s="14">
-        <f>_xlfn.STDEV.S(V30:V34)</f>
+        <f t="shared" si="14"/>
         <v>3.0628652514958938</v>
       </c>
       <c r="W40" s="14">
-        <f>_xlfn.STDEV.S(W30:W34)</f>
+        <f t="shared" si="14"/>
         <v>0.36596566218027543</v>
       </c>
       <c r="X40" s="14">
-        <f>_xlfn.STDEV.S(X30:X34)</f>
+        <f t="shared" si="14"/>
         <v>0.70783516232122767</v>
       </c>
     </row>
@@ -8378,11 +8386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8611,7 +8619,7 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="K11" s="8">
-        <f>B11*J11*($F11*$B$4+$G11*$B$3+$H11*$B$5+$I11*$B$6)/1000</f>
+        <f t="shared" ref="K11:K34" si="0">B11*J11*($F11*$B$4+$G11*$B$3+$H11*$B$5+$I11*$B$6)/1000</f>
         <v>2960656.2115557762</v>
       </c>
       <c r="L11" s="8">
@@ -8619,7 +8627,7 @@
         <v>4222554.2204999998</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" ref="M11:M34" si="0">L11+K11</f>
+        <f t="shared" ref="M11:M34" si="1">L11+K11</f>
         <v>7183210.432055776</v>
       </c>
       <c r="N11">
@@ -8657,7 +8665,7 @@
         <v>924</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" ref="D12:D34" si="1">C12/3000*365</f>
+        <f t="shared" ref="D12:D34" si="2">C12/3000*365</f>
         <v>112.42</v>
       </c>
       <c r="E12">
@@ -8679,15 +8687,15 @@
         <v>0.4081818181818182</v>
       </c>
       <c r="K12" s="8">
-        <f>B12*J12*($F12*$B$4+$G12*$B$3+$H12*$B$5+$I12*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>3138182.4492085357</v>
       </c>
       <c r="L12" s="8">
-        <f t="shared" ref="L12:L34" si="2">B12*D12/1000</f>
+        <f t="shared" ref="L12:L34" si="3">B12*D12/1000</f>
         <v>4321183.6591000007</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7459366.1083085369</v>
       </c>
       <c r="N12">
@@ -8700,11 +8708,11 @@
         <v>123943432441.24146</v>
       </c>
       <c r="Q12" s="9">
-        <f>B12/B11 - 1</f>
+        <f t="shared" ref="Q12:Q34" si="4">B12/B11 - 1</f>
         <v>2.3357767230356874E-2</v>
       </c>
       <c r="R12" s="9">
-        <f>N12/N11-1</f>
+        <f t="shared" ref="R12:R34" si="5">N12/N11-1</f>
         <v>-9.1929062613101742E-2</v>
       </c>
       <c r="S12" s="9">
@@ -8720,7 +8728,7 @@
         <v>7.2608523084928045E-2</v>
       </c>
       <c r="V12" s="5">
-        <f>R12/Q12</f>
+        <f t="shared" ref="V12:V34" si="6">R12/Q12</f>
         <v>-3.9356956384780788</v>
       </c>
       <c r="W12" s="5">
@@ -8743,7 +8751,7 @@
         <v>930</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113.15</v>
       </c>
       <c r="E13">
@@ -8765,15 +8773,15 @@
         <v>0.41136363636363638</v>
       </c>
       <c r="K13" s="8">
-        <f>B13*J13*($F13*$B$4+$G13*$B$3+$H13*$B$5+$I13*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>3381649.2155453353</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4453609.4587500002</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7835258.674295336</v>
       </c>
       <c r="N13">
@@ -8786,35 +8794,35 @@
         <v>134545231416.54977</v>
       </c>
       <c r="Q13" s="9">
-        <f>B13/B12 - 1</f>
+        <f t="shared" si="4"/>
         <v>2.3996396260925534E-2</v>
       </c>
       <c r="R13" s="9">
-        <f>N13/N12-1</f>
+        <f t="shared" si="5"/>
         <v>2.9228112129666473E-2</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" ref="S13:S34" si="3">M13/M12-1</f>
+        <f t="shared" ref="S13:S34" si="7">M13/M12-1</f>
         <v>5.0392025344903724E-2</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" ref="T13:T34" si="4">K13/K12-1</f>
+        <f t="shared" ref="T13:T34" si="8">K13/K12-1</f>
         <v>7.7582094182638395E-2</v>
       </c>
       <c r="U13" s="9">
-        <f t="shared" ref="U13:U34" si="5">P13/P12-1</f>
+        <f t="shared" ref="U13:U34" si="9">P13/P12-1</f>
         <v>8.5537400138844477E-2</v>
       </c>
       <c r="V13" s="5">
-        <f>R13/Q13</f>
+        <f t="shared" si="6"/>
         <v>1.2180208982987994</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" ref="W13:W34" si="6">T13/U13</f>
+        <f t="shared" ref="W13:W34" si="10">T13/U13</f>
         <v>0.90699616842114661</v>
       </c>
       <c r="X13" s="5">
-        <f t="shared" ref="X13:X34" si="7">R13/U13</f>
+        <f t="shared" ref="X13:X34" si="11">R13/U13</f>
         <v>0.34169979543712276</v>
       </c>
     </row>
@@ -8829,7 +8837,7 @@
         <v>985</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119.84166666666665</v>
       </c>
       <c r="E14">
@@ -8851,15 +8859,15 @@
         <v>0.41454545454545455</v>
       </c>
       <c r="K14" s="8">
-        <f>B14*J14*($F14*$B$4+$G14*$B$3+$H14*$B$5+$I14*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>3363881.6669242322</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4829638.4611749994</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8193520.128099231</v>
       </c>
       <c r="N14">
@@ -8872,35 +8880,35 @@
         <v>134309759157.81743</v>
       </c>
       <c r="Q14" s="9">
-        <f>B14/B13 - 1</f>
+        <f t="shared" si="4"/>
         <v>2.3880351293723567E-2</v>
       </c>
       <c r="R14" s="9">
-        <f>N14/N13-1</f>
+        <f t="shared" si="5"/>
         <v>4.5566025558280598E-2</v>
       </c>
       <c r="S14" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.5724266255461554E-2</v>
       </c>
       <c r="T14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-5.2541075341068222E-3</v>
       </c>
       <c r="U14" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.7501345551469427E-3</v>
       </c>
       <c r="V14" s="5">
-        <f>R14/Q14</f>
+        <f t="shared" si="6"/>
         <v>1.9080969537603343</v>
       </c>
       <c r="W14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.0021163336585186</v>
       </c>
       <c r="X14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-26.03572703840182</v>
       </c>
     </row>
@@ -8915,7 +8923,7 @@
         <v>931</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113.27166666666668</v>
       </c>
       <c r="E15">
@@ -8937,15 +8945,15 @@
         <v>0.41772727272727272</v>
       </c>
       <c r="K15" s="8">
-        <f>B15*J15*($F15*$B$4+$G15*$B$3+$H15*$B$5+$I15*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>3186169.973334488</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4668933.6144383335</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7855103.587772822</v>
       </c>
       <c r="N15">
@@ -8958,35 +8966,35 @@
         <v>139752450152.0784</v>
       </c>
       <c r="Q15" s="9">
-        <f>B15/B14 - 1</f>
+        <f t="shared" si="4"/>
         <v>2.2797427533850279E-2</v>
       </c>
       <c r="R15" s="9">
-        <f>N15/N14-1</f>
+        <f t="shared" si="5"/>
         <v>-5.0493827160493776E-2</v>
       </c>
       <c r="S15" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-4.1302948553922247E-2</v>
       </c>
       <c r="T15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-5.2829353463029194E-2</v>
       </c>
       <c r="U15" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.0523421591916353E-2</v>
       </c>
       <c r="V15" s="5">
-        <f>R15/Q15</f>
+        <f t="shared" si="6"/>
         <v>-2.2148914427085726</v>
       </c>
       <c r="W15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.3036745513505117</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-1.2460405656013589</v>
       </c>
     </row>
@@ -9001,7 +9009,7 @@
         <v>894</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108.77</v>
       </c>
       <c r="E16">
@@ -9023,15 +9031,15 @@
         <v>0.4209090909090909</v>
       </c>
       <c r="K16" s="8">
-        <f>B16*J16*($F16*$B$4+$G16*$B$3+$H16*$B$5+$I16*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2780740.9259004714</v>
       </c>
       <c r="L16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4577929.7070500003</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7358670.6329504717</v>
       </c>
       <c r="N16">
@@ -9044,35 +9052,35 @@
         <v>155460285076.23169</v>
       </c>
       <c r="Q16" s="9">
-        <f>B16/B15 - 1</f>
+        <f t="shared" si="4"/>
         <v>2.1088965957631878E-2</v>
       </c>
       <c r="R16" s="9">
-        <f>N16/N15-1</f>
+        <f t="shared" si="5"/>
         <v>-1.3002210375764323E-3</v>
       </c>
       <c r="S16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.3198778892628815E-2</v>
       </c>
       <c r="T16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-0.12724652194550523</v>
       </c>
       <c r="U16" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.11239756374260379</v>
       </c>
       <c r="V16" s="5">
-        <f>R16/Q16</f>
+        <f t="shared" si="6"/>
         <v>-6.1654091537185859E-2</v>
       </c>
       <c r="W16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.132111032556776</v>
       </c>
       <c r="X16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-1.1568053561676884E-2</v>
       </c>
     </row>
@@ -9087,7 +9095,7 @@
         <v>896</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109.01333333333334</v>
       </c>
       <c r="E17">
@@ -9109,15 +9117,15 @@
         <v>0.42409090909090907</v>
       </c>
       <c r="K17" s="8">
-        <f>B17*J17*($F17*$B$4+$G17*$B$3+$H17*$B$5+$I17*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2771118.3035000558</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4676510.6602666667</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7447628.963766722</v>
       </c>
       <c r="N17">
@@ -9130,35 +9138,35 @@
         <v>147607982694.8573</v>
       </c>
       <c r="Q17" s="9">
-        <f>B17/B16 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.9253749836800838E-2</v>
       </c>
       <c r="R17" s="9">
-        <f>N17/N16-1</f>
+        <f t="shared" si="5"/>
         <v>-5.8586121598750429E-3</v>
       </c>
       <c r="S17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2088913236300458E-2</v>
       </c>
       <c r="T17" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-3.4604526839548955E-3</v>
       </c>
       <c r="U17" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-5.0510021755871159E-2</v>
       </c>
       <c r="V17" s="5">
-        <f>R17/Q17</f>
+        <f t="shared" si="6"/>
         <v>-0.30428421525853261</v>
       </c>
       <c r="W17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.8510219628892977E-2</v>
       </c>
       <c r="X17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.11598910386915548</v>
       </c>
     </row>
@@ -9173,7 +9181,7 @@
         <v>880</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107.06666666666666</v>
       </c>
       <c r="E18">
@@ -9195,15 +9203,15 @@
         <v>0.42727272727272725</v>
       </c>
       <c r="K18" s="8">
-        <f>B18*J18*($F18*$B$4+$G18*$B$3+$H18*$B$5+$I18*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2867692.7441282328</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4674212.0362666668</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7541904.7803948997</v>
       </c>
       <c r="N18">
@@ -9216,35 +9224,35 @@
         <v>152586154513.88889</v>
       </c>
       <c r="Q18" s="9">
-        <f>B18/B17 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.7681355906917107E-2</v>
       </c>
       <c r="R18" s="9">
-        <f>N18/N17-1</f>
+        <f t="shared" si="5"/>
         <v>4.6359350445259295E-2</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2658500723765398E-2</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.485034922767416E-2</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.3725627355281507E-2</v>
       </c>
       <c r="V18" s="5">
-        <f>R18/Q18</f>
+        <f t="shared" si="6"/>
         <v>2.6219341259412747</v>
       </c>
       <c r="W18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0333491757038145</v>
       </c>
       <c r="X18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.3746030565091718</v>
       </c>
     </row>
@@ -9259,7 +9267,7 @@
         <v>915</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111.325</v>
       </c>
       <c r="E19">
@@ -9281,15 +9289,15 @@
         <v>0.43045454545454542</v>
       </c>
       <c r="K19" s="8">
-        <f>B19*J19*($F19*$B$4+$G19*$B$3+$H19*$B$5+$I19*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2725511.2601893269</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4939725.368400001</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7665236.6285893284</v>
       </c>
       <c r="N19">
@@ -9302,35 +9310,35 @@
         <v>137774361015.14029</v>
       </c>
       <c r="Q19" s="9">
-        <f>B19/B18 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.6379678101741346E-2</v>
       </c>
       <c r="R19" s="9">
-        <f>N19/N18-1</f>
+        <f t="shared" si="5"/>
         <v>-6.758448060075084E-3</v>
       </c>
       <c r="S19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.6352877924821874E-2</v>
       </c>
       <c r="T19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-4.9580445544604057E-2</v>
       </c>
       <c r="U19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-9.7071674333337854E-2</v>
       </c>
       <c r="V19" s="5">
-        <f>R19/Q19</f>
+        <f t="shared" si="6"/>
         <v>-0.41261177528003951</v>
       </c>
       <c r="W19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.51076120696494853</v>
       </c>
       <c r="X19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.9623276887828378E-2</v>
       </c>
     </row>
@@ -9345,7 +9353,7 @@
         <v>904</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109.98666666666666</v>
       </c>
       <c r="E20">
@@ -9367,15 +9375,15 @@
         <v>0.4336363636363636</v>
       </c>
       <c r="K20" s="8">
-        <f>B20*J20*($F20*$B$4+$G20*$B$3+$H20*$B$5+$I20*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2821193.4479115065</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4955864.4663333334</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7777057.9142448399</v>
       </c>
       <c r="N20">
@@ -9388,35 +9396,35 @@
         <v>136631966609.37885</v>
       </c>
       <c r="Q20" s="9">
-        <f>B20/B19 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.5475102920501138E-2</v>
       </c>
       <c r="R20" s="9">
-        <f>N20/N19-1</f>
+        <f t="shared" si="5"/>
         <v>0.11567540322580649</v>
       </c>
       <c r="S20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.4588106156885994E-2</v>
       </c>
       <c r="T20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.5106142880339197E-2</v>
       </c>
       <c r="U20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-8.2917779283759874E-3</v>
       </c>
       <c r="V20" s="5">
-        <f>R20/Q20</f>
+        <f t="shared" si="6"/>
         <v>7.4749359548725067</v>
       </c>
       <c r="W20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-4.2338498671315747</v>
       </c>
       <c r="X20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-13.950615202795532</v>
       </c>
     </row>
@@ -9431,7 +9439,7 @@
         <v>950</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115.58333333333333</v>
       </c>
       <c r="E21">
@@ -9453,15 +9461,15 @@
         <v>0.43681818181818177</v>
       </c>
       <c r="K21" s="8">
-        <f>B21*J21*($F21*$B$4+$G21*$B$3+$H21*$B$5+$I21*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>3373167.4015726852</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5285431.0754166665</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8658598.4769893512</v>
       </c>
       <c r="N21">
@@ -9474,32 +9482,32 @@
         <v>136361854808.49591</v>
       </c>
       <c r="Q21" s="9">
-        <f>B21/B20 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.4859258823614274E-2</v>
       </c>
       <c r="R21" s="9">
-        <f>N21/N20-1</f>
+        <f t="shared" si="5"/>
         <v>-1.6828552066862401E-2</v>
       </c>
       <c r="S21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.11335142060982184</v>
       </c>
       <c r="T21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.1956526427033205</v>
       </c>
       <c r="U21" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.9769297594549595E-3</v>
       </c>
       <c r="V21" s="5">
-        <f>R21/Q21</f>
+        <f t="shared" si="6"/>
         <v>-1.132529708690351</v>
       </c>
       <c r="W21" s="5"/>
       <c r="X21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.5124683800106489</v>
       </c>
     </row>
@@ -9514,7 +9522,7 @@
         <v>960</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116.8</v>
       </c>
       <c r="E22">
@@ -9536,15 +9544,15 @@
         <v>0.43999999999999995</v>
       </c>
       <c r="K22" s="8">
-        <f>B22*J22*($F22*$B$4+$G22*$B$3+$H22*$B$5+$I22*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>2919181.3508823677</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5417768.7007999998</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8336950.0516823679</v>
       </c>
       <c r="N22">
@@ -9557,35 +9565,35 @@
         <v>121600818309.67906</v>
       </c>
       <c r="Q22" s="9">
-        <f>B22/B21 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.4360708458205806E-2</v>
       </c>
       <c r="R22" s="9">
-        <f>N22/N21-1</f>
+        <f t="shared" si="5"/>
         <v>-2.975301550832854E-2</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.7147862458546843E-2</v>
       </c>
       <c r="T22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-0.13458746532373511</v>
       </c>
       <c r="U22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-0.10824901523631358</v>
       </c>
       <c r="V22" s="5">
-        <f>R22/Q22</f>
+        <f t="shared" si="6"/>
         <v>-2.071834798047687</v>
       </c>
       <c r="W22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2433135306582073</v>
       </c>
       <c r="X22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.27485714713779208</v>
       </c>
     </row>
@@ -9600,7 +9608,7 @@
         <v>965</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117.40833333333333</v>
       </c>
       <c r="E23">
@@ -9622,15 +9630,15 @@
         <v>0.44318181818181812</v>
       </c>
       <c r="K23" s="8">
-        <f>B23*J23*($F23*$B$4+$G23*$B$3+$H23*$B$5+$I23*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>3084237.2602836508</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5521264.5949750002</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8605501.8552586511</v>
       </c>
       <c r="N23">
@@ -9643,35 +9651,35 @@
         <v>115748110112.68007</v>
       </c>
       <c r="Q23" s="9">
-        <f>B23/B22 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.3822721074995714E-2</v>
       </c>
       <c r="R23" s="9">
-        <f>N23/N22-1</f>
+        <f t="shared" si="5"/>
         <v>8.761543926118831E-3</v>
       </c>
       <c r="S23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.2212236118901894E-2</v>
       </c>
       <c r="T23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.6541848402598349E-2</v>
       </c>
       <c r="U23" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-4.8130500093296891E-2</v>
       </c>
       <c r="V23" s="5">
-        <f>R23/Q23</f>
+        <f t="shared" si="6"/>
         <v>0.63385088063216577</v>
       </c>
       <c r="W23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.174761290512186</v>
       </c>
       <c r="X23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.18203725099750306</v>
       </c>
     </row>
@@ -9686,7 +9694,7 @@
         <v>973</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>118.38166666666666</v>
       </c>
       <c r="E24">
@@ -9708,15 +9716,15 @@
         <v>0.4463636363636363</v>
       </c>
       <c r="K24" s="8">
-        <f>B24*J24*($F24*$B$4+$G24*$B$3+$H24*$B$5+$I24*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>3352359.6591498656</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5640735.7168049989</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8993095.3759548645</v>
       </c>
       <c r="N24">
@@ -9729,35 +9737,35 @@
         <v>175256916996.04742</v>
       </c>
       <c r="Q24" s="9">
-        <f>B24/B23 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.3238457656335356E-2</v>
       </c>
       <c r="R24" s="9">
-        <f>N24/N23-1</f>
+        <f t="shared" si="5"/>
         <v>1.8427230046948351E-2</v>
       </c>
       <c r="S24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.5040199539247316E-2</v>
       </c>
       <c r="T24" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.6933130054189123E-2</v>
       </c>
       <c r="U24" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.51412335653200647</v>
       </c>
       <c r="V24" s="5">
-        <f>R24/Q24</f>
+        <f t="shared" si="6"/>
         <v>1.3919468963312256</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.16909002275366797</v>
       </c>
       <c r="X24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.5842040266850186E-2</v>
       </c>
     </row>
@@ -9772,7 +9780,7 @@
         <v>949</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115.46166666666667</v>
       </c>
       <c r="E25">
@@ -9794,15 +9802,15 @@
         <v>0.44954545454545447</v>
       </c>
       <c r="K25" s="8">
-        <f>B25*J25*($F25*$B$4+$G25*$B$3+$H25*$B$5+$I25*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>3577687.7436663196</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5570724.6390250009</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9148412.38269132</v>
       </c>
       <c r="N25">
@@ -9815,35 +9823,35 @@
         <v>228937347865.85837</v>
       </c>
       <c r="Q25" s="9">
-        <f>B25/B24 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.2564197150534584E-2</v>
       </c>
       <c r="R25" s="9">
-        <f>N25/N24-1</f>
+        <f t="shared" si="5"/>
         <v>0.11789789097614389</v>
       </c>
       <c r="S25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.7270694932440156E-2</v>
       </c>
       <c r="T25" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.7214770319004469E-2</v>
       </c>
       <c r="U25" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.30629564749801919</v>
       </c>
       <c r="V25" s="5">
-        <f>R25/Q25</f>
+        <f t="shared" si="6"/>
         <v>9.3836390470144408</v>
       </c>
       <c r="W25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.21944409222935218</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.38491533242210479</v>
       </c>
     </row>
@@ -9858,7 +9866,7 @@
         <v>926</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112.66333333333333</v>
       </c>
       <c r="E26">
@@ -9880,15 +9888,15 @@
         <v>0.45272727272727264</v>
       </c>
       <c r="K26" s="8">
-        <f>B26*J26*($F26*$B$4+$G26*$B$3+$H26*$B$5+$I26*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>3871246.0843044831</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5500289.9540466657</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9371536.0383511484</v>
       </c>
       <c r="N26">
@@ -9901,35 +9909,35 @@
         <v>257671413750.82526</v>
       </c>
       <c r="Q26" s="9">
-        <f>B26/B25 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.1880247627877205E-2</v>
       </c>
       <c r="R26" s="9">
-        <f>N26/N25-1</f>
+        <f t="shared" si="5"/>
         <v>-7.2164948453608213E-2</v>
       </c>
       <c r="S26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.4389330774154283E-2</v>
       </c>
       <c r="T26" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.2052532716936577E-2</v>
       </c>
       <c r="U26" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.12551060870069608</v>
       </c>
       <c r="V26" s="5">
-        <f>R26/Q26</f>
+        <f t="shared" si="6"/>
         <v>-6.0743639959382598</v>
       </c>
       <c r="W26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.65374977913306476</v>
       </c>
       <c r="X26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.57497090644902582</v>
       </c>
     </row>
@@ -9944,7 +9952,7 @@
         <v>867</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105.485</v>
       </c>
       <c r="E27">
@@ -9966,15 +9974,15 @@
         <v>0.45590909090909082</v>
       </c>
       <c r="K27" s="8">
-        <f>B27*J27*($F27*$B$4+$G27*$B$3+$H27*$B$5+$I27*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>4345981.8653336605</v>
       </c>
       <c r="L27" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5207222.9322699998</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9553204.7976036593</v>
       </c>
       <c r="N27">
@@ -9987,35 +9995,35 @@
         <v>271811088781.17981</v>
       </c>
       <c r="Q27" s="9">
-        <f>B27/B26 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.1142758507650896E-2</v>
       </c>
       <c r="R27" s="9">
-        <f>N27/N26-1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.9385163596348232E-2</v>
       </c>
       <c r="T27" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.12263125895146221</v>
       </c>
       <c r="U27" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.4874830019087772E-2</v>
       </c>
       <c r="V27" s="5">
-        <f>R27/Q27</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W27" s="5">
-        <f t="shared" si="6"/>
+        <f>T27/U27</f>
         <v>2.2347451264779483</v>
       </c>
       <c r="X27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10030,7 +10038,7 @@
         <v>857</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104.26833333333335</v>
       </c>
       <c r="E28">
@@ -10052,15 +10060,15 @@
         <v>0.45909090909090899</v>
       </c>
       <c r="K28" s="8">
-        <f>B28*J28*($F28*$B$4+$G28*$B$3+$H28*$B$5+$I28*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>4416907.8073033029</v>
       </c>
       <c r="L28" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5201653.2175683333</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9618561.0248716362</v>
       </c>
       <c r="N28">
@@ -10073,35 +10081,35 @@
         <v>299033511000.22681</v>
       </c>
       <c r="Q28" s="9">
-        <f>B28/B27 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.0586517272646923E-2</v>
       </c>
       <c r="R28" s="9">
-        <f>N28/N27-1</f>
+        <f t="shared" si="5"/>
         <v>0.12222222222222223</v>
       </c>
       <c r="S28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.8412882014599052E-3</v>
       </c>
       <c r="T28" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6319889076250593E-2</v>
       </c>
       <c r="U28" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.10015199284589249</v>
       </c>
       <c r="V28" s="5">
-        <f>R28/Q28</f>
+        <f t="shared" si="6"/>
         <v>11.545083153835282</v>
       </c>
       <c r="W28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.16295121657102321</v>
       </c>
       <c r="X28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.2203673511548592</v>
       </c>
     </row>
@@ -10116,7 +10124,7 @@
         <v>828</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100.74000000000001</v>
       </c>
       <c r="E29">
@@ -10138,15 +10146,15 @@
         <v>0.46227272727272717</v>
       </c>
       <c r="K29" s="8">
-        <f>B29*J29*($F29*$B$4+$G29*$B$3+$H29*$B$5+$I29*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>4496592.1279153693</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5078517.8754599998</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9575110.0033753701</v>
       </c>
       <c r="N29">
@@ -10159,35 +10167,35 @@
         <v>287099991516.89954</v>
       </c>
       <c r="Q29" s="9">
-        <f>B29/B28 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.0522703217084928E-2</v>
       </c>
       <c r="R29" s="9">
-        <f>N29/N28-1</f>
+        <f t="shared" si="5"/>
         <v>1.980198019801982E-2</v>
       </c>
       <c r="S29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-4.5174139233415955E-3</v>
       </c>
       <c r="T29" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8040747982176475E-2</v>
       </c>
       <c r="U29" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.990696374935121E-2</v>
       </c>
       <c r="V29" s="5">
-        <f>R29/Q29</f>
+        <f t="shared" si="6"/>
         <v>1.8818339536430926</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-0.45207017240117081</v>
       </c>
       <c r="X29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.49620362807836393</v>
       </c>
     </row>
@@ -10202,7 +10210,7 @@
         <v>807</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98.185000000000002</v>
       </c>
       <c r="E30">
@@ -10224,15 +10232,15 @@
         <v>0.46545454545454534</v>
       </c>
       <c r="K30" s="8">
-        <f>B30*J30*($F30*$B$4+$G30*$B$3+$H30*$B$5+$I30*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>4565205.9478807272</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5004569.7653299998</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9569775.713210728</v>
       </c>
       <c r="N30">
@@ -10245,35 +10253,35 @@
         <v>297216730668.94226</v>
       </c>
       <c r="Q30" s="9">
-        <f>B30/B29 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.1082432166274803E-2</v>
       </c>
       <c r="R30" s="9">
-        <f>N30/N29-1</f>
+        <f t="shared" si="5"/>
         <v>2.9126213592232997E-2</v>
       </c>
       <c r="S30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-5.5709962212047159E-4</v>
       </c>
       <c r="T30" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5259071317452966E-2</v>
       </c>
       <c r="U30" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.5237685304658761E-2</v>
       </c>
       <c r="V30" s="5">
-        <f>R30/Q30</f>
+        <f t="shared" si="6"/>
         <v>2.6281427357496154</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.43303273712577167</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.82656432567613147</v>
       </c>
     </row>
@@ -10288,7 +10296,7 @@
         <v>867</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105.485</v>
       </c>
       <c r="E31">
@@ -10310,15 +10318,15 @@
         <v>0.46863636363636352</v>
       </c>
       <c r="K31" s="8">
-        <f>B31*J31*($F31*$B$4+$G31*$B$3+$H31*$B$5+$I31*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>4789374.1251796409</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5441408.1765550002</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10230782.301734641</v>
       </c>
       <c r="N31">
@@ -10331,35 +10339,35 @@
         <v>375298134440.46869</v>
       </c>
       <c r="Q31" s="9">
-        <f>B31/B30 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.2043067466564805E-2</v>
       </c>
       <c r="R31" s="9">
-        <f>N31/N30-1</f>
+        <f t="shared" si="5"/>
         <v>4.7169811320755262E-3</v>
       </c>
       <c r="S31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.9072317714971909E-2</v>
       </c>
       <c r="T31" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.9103628589412862E-2</v>
       </c>
       <c r="U31" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.26270864226179169</v>
       </c>
       <c r="V31" s="5">
-        <f>R31/Q31</f>
+        <f t="shared" si="6"/>
         <v>0.39167605306300002</v>
       </c>
       <c r="W31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.1869128787186248</v>
       </c>
       <c r="X31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.7955180657418225E-2</v>
       </c>
     </row>
@@ -10374,7 +10382,7 @@
         <v>861</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104.755</v>
       </c>
       <c r="E32">
@@ -10396,15 +10404,15 @@
         <v>0.47181818181818169</v>
       </c>
       <c r="K32" s="8">
-        <f>B32*J32*($F32*$B$4+$G32*$B$3+$H32*$B$5+$I32*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>4790297.5774668436</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5474864.6185799995</v>
       </c>
       <c r="M32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10265162.196046844</v>
       </c>
       <c r="N32">
@@ -10417,35 +10425,35 @@
         <v>416878162440.88733</v>
       </c>
       <c r="Q32" s="9">
-        <f>B32/B31 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.3159977414217039E-2</v>
       </c>
       <c r="R32" s="9">
-        <f>N32/N31-1</f>
+        <f t="shared" si="5"/>
         <v>4.6948356807512415E-3</v>
       </c>
       <c r="S32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.3604365040955653E-3</v>
       </c>
       <c r="T32" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.9281272731386245E-4</v>
       </c>
       <c r="U32" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.11079199224480618</v>
       </c>
       <c r="V32" s="5">
-        <f>R32/Q32</f>
+        <f t="shared" si="6"/>
         <v>0.35675104394018931</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.7403128457860303E-3</v>
       </c>
       <c r="X32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.237522573271834E-2</v>
       </c>
     </row>
@@ -10460,7 +10468,7 @@
         <v>852</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103.66</v>
       </c>
       <c r="E33">
@@ -10482,15 +10490,15 @@
         <v>0.47499999999999987</v>
       </c>
       <c r="K33" s="8">
-        <f>B33*J33*($F33*$B$4+$G33*$B$3+$H33*$B$5+$I33*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>4954927.4791705487</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5493794.7595800003</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10448722.238750549</v>
       </c>
       <c r="N33">
@@ -10503,35 +10511,35 @@
         <v>396332702639.49622</v>
       </c>
       <c r="Q33" s="9">
-        <f>B33/B32 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.4057550203855351E-2</v>
       </c>
       <c r="R33" s="9">
-        <f>N33/N32-1</f>
+        <f t="shared" si="5"/>
         <v>2.8037383177569986E-2</v>
       </c>
       <c r="S33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.7881845332594404E-2</v>
       </c>
       <c r="T33" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.4367364248540699E-2</v>
       </c>
       <c r="U33" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-4.9284087420396916E-2</v>
       </c>
       <c r="V33" s="5">
-        <f>R33/Q33</f>
+        <f t="shared" si="6"/>
         <v>1.9944714954587606</v>
       </c>
       <c r="W33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-0.69733185795619057</v>
       </c>
       <c r="X33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.56889321980153618</v>
       </c>
     </row>
@@ -10546,7 +10554,7 @@
         <v>858</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104.38999999999999</v>
       </c>
       <c r="E34">
@@ -10568,15 +10576,15 @@
         <v>0.47818181818181804</v>
       </c>
       <c r="K34" s="8">
-        <f>B34*J34*($F34*$B$4+$G34*$B$3+$H34*$B$5+$I34*$B$6)/1000</f>
+        <f t="shared" si="0"/>
         <v>5655882.6949134991</v>
       </c>
       <c r="L34" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5612778.46844</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11268661.163353499</v>
       </c>
       <c r="N34">
@@ -10589,35 +10597,35 @@
         <v>366829390478.9538</v>
       </c>
       <c r="Q34" s="9">
-        <f>B34/B33 - 1</f>
+        <f t="shared" si="4"/>
         <v>1.4513376139682288E-2</v>
       </c>
       <c r="R34" s="9">
-        <f>N34/N33-1</f>
+        <f t="shared" si="5"/>
         <v>4.5454545454545414E-2</v>
       </c>
       <c r="S34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.847265013535254E-2</v>
       </c>
       <c r="T34" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.14146629162376545</v>
       </c>
       <c r="U34" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-7.4440771513569981E-2</v>
       </c>
       <c r="V34" s="5">
-        <f>R34/Q34</f>
+        <f t="shared" si="6"/>
         <v>3.1319070777931661</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.9003872306452014</v>
       </c>
       <c r="X34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.61061357278194517</v>
       </c>
     </row>
@@ -10626,35 +10634,35 @@
         <v>41</v>
       </c>
       <c r="Q36" s="10">
-        <f>AVERAGE(Q12:Q34)</f>
+        <f t="shared" ref="Q36:X36" si="12">AVERAGE(Q12:Q34)</f>
         <v>1.5728033400956024E-2</v>
       </c>
       <c r="R36" s="10">
-        <f>AVERAGE(R12:R34)</f>
+        <f t="shared" si="12"/>
         <v>1.5690566552422604E-2</v>
       </c>
       <c r="S36" s="10">
-        <f>AVERAGE(S12:S34)</f>
+        <f t="shared" si="12"/>
         <v>2.0469685785149291E-2</v>
       </c>
       <c r="T36" s="10">
-        <f>AVERAGE(T12:T34)</f>
+        <f t="shared" si="12"/>
         <v>3.1318174594876715E-2</v>
       </c>
       <c r="U36" s="10">
-        <f>AVERAGE(U12:U34)</f>
+        <f t="shared" si="12"/>
         <v>5.9777191955452932E-2</v>
       </c>
       <c r="V36" s="5">
-        <f>AVERAGE(V12:V34)</f>
+        <f t="shared" si="12"/>
         <v>1.3197575914954414</v>
       </c>
       <c r="W36" s="5">
-        <f>AVERAGE(W12:W34)</f>
+        <f t="shared" si="12"/>
         <v>3.4470444636786925E-2</v>
       </c>
       <c r="X36" s="5">
-        <f>AVERAGE(X12:X34)</f>
+        <f t="shared" si="12"/>
         <v>-1.3793696138297264</v>
       </c>
     </row>
@@ -10666,35 +10674,35 @@
         <v>42</v>
       </c>
       <c r="Q37" s="2">
-        <f>_xlfn.STDEV.S(Q12:Q34)</f>
+        <f t="shared" ref="Q37:X37" si="13">_xlfn.STDEV.S(Q12:Q34)</f>
         <v>4.5042116866150245E-3</v>
       </c>
       <c r="R37" s="2">
-        <f>_xlfn.STDEV.S(R12:R34)</f>
+        <f t="shared" si="13"/>
         <v>5.3787475010117054E-2</v>
       </c>
       <c r="S37" s="13">
-        <f>_xlfn.STDEV.S(S12:S34)</f>
+        <f t="shared" si="13"/>
         <v>3.8640927375821171E-2</v>
       </c>
       <c r="T37" s="2">
-        <f>_xlfn.STDEV.S(T12:T34)</f>
+        <f t="shared" si="13"/>
         <v>7.6529672707350019E-2</v>
       </c>
       <c r="U37" s="2">
-        <f>_xlfn.STDEV.S(U12:U34)</f>
+        <f t="shared" si="13"/>
         <v>0.14316698124121177</v>
       </c>
       <c r="V37" s="5">
-        <f>_xlfn.STDEV.S(V12:V34)</f>
+        <f t="shared" si="13"/>
         <v>3.9262810274547442</v>
       </c>
       <c r="W37" s="5">
-        <f>_xlfn.STDEV.S(W12:W34)</f>
+        <f t="shared" si="13"/>
         <v>1.4752970821845606</v>
       </c>
       <c r="X37" s="5">
-        <f>_xlfn.STDEV.S(X12:X34)</f>
+        <f t="shared" si="13"/>
         <v>6.4316902028170064</v>
       </c>
     </row>
@@ -10711,35 +10719,35 @@
         <v>49</v>
       </c>
       <c r="Q39" s="10">
-        <f>AVERAGE(Q30:Q34)</f>
+        <f t="shared" ref="Q39:X39" si="14">AVERAGE(Q30:Q34)</f>
         <v>1.2971280678118858E-2</v>
       </c>
       <c r="R39" s="10">
-        <f>AVERAGE(R30:R34)</f>
+        <f t="shared" si="14"/>
         <v>2.2405991807435032E-2</v>
       </c>
       <c r="S39" s="10">
-        <f>AVERAGE(S30:S34)</f>
+        <f t="shared" si="14"/>
         <v>3.3646030012978792E-2</v>
       </c>
       <c r="T39" s="10">
-        <f>AVERAGE(T30:T34)</f>
+        <f t="shared" si="14"/>
         <v>4.8077833701297167E-2</v>
       </c>
       <c r="U39" s="10">
-        <f>AVERAGE(U30:U34)</f>
+        <f t="shared" si="14"/>
         <v>5.7002692175457947E-2</v>
       </c>
       <c r="V39" s="5">
-        <f>AVERAGE(V30:V34)</f>
+        <f t="shared" si="14"/>
         <v>1.7005896812009464</v>
       </c>
       <c r="W39" s="5">
-        <f>AVERAGE(W30:W34)</f>
+        <f t="shared" si="14"/>
         <v>-0.39520663198224193</v>
       </c>
       <c r="X39" s="5">
-        <f>AVERAGE(X30:X34)</f>
+        <f t="shared" si="14"/>
         <v>-5.8522412103442667E-2</v>
       </c>
     </row>
@@ -10751,35 +10759,35 @@
         <v>50</v>
       </c>
       <c r="Q40" s="9">
-        <f>_xlfn.STDEV.S(Q30:Q34)</f>
+        <f t="shared" ref="Q40:X40" si="15">_xlfn.STDEV.S(Q30:Q34)</f>
         <v>1.4162428128795051E-3</v>
       </c>
       <c r="R40" s="9">
-        <f>_xlfn.STDEV.S(R30:R34)</f>
+        <f t="shared" si="15"/>
         <v>1.7569120103472599E-2</v>
       </c>
       <c r="S40" s="9">
-        <f>_xlfn.STDEV.S(S30:S34)</f>
+        <f t="shared" si="15"/>
         <v>3.7416669084774146E-2</v>
       </c>
       <c r="T40" s="9">
-        <f>_xlfn.STDEV.S(T30:T34)</f>
+        <f t="shared" si="15"/>
         <v>5.5408662903444365E-2</v>
       </c>
       <c r="U40" s="9">
-        <f>_xlfn.STDEV.S(U30:U34)</f>
+        <f t="shared" si="15"/>
         <v>0.13624995953245653</v>
       </c>
       <c r="V40" s="14">
-        <f>_xlfn.STDEV.S(V30:V34)</f>
+        <f t="shared" si="15"/>
         <v>1.2761806150053416</v>
       </c>
       <c r="W40" s="14">
-        <f>_xlfn.STDEV.S(W30:W34)</f>
+        <f t="shared" si="15"/>
         <v>0.94064588728284948</v>
       </c>
       <c r="X40" s="14">
-        <f>_xlfn.STDEV.S(X30:X34)</f>
+        <f t="shared" si="15"/>
         <v>0.58409988442869132</v>
       </c>
     </row>
